--- a/Successful Solutions Sheet.xlsx
+++ b/Successful Solutions Sheet.xlsx
@@ -354,7 +354,7 @@
   <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -493,95 +493,179 @@
       <c r="A13">
         <v>12</v>
       </c>
+      <c r="B13" s="1">
+        <v>0.35</v>
+      </c>
+      <c r="C13">
+        <v>2.8033567606360301</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
+      <c r="B14" s="1">
+        <v>0.49</v>
+      </c>
+      <c r="C14">
+        <v>114.68440599109</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
+      <c r="B15" s="1">
+        <v>0.33</v>
+      </c>
+      <c r="C15">
+        <v>20.526960076346501</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B16" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="C16">
+        <v>201.303920152693</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B17" s="1">
+        <v>0.47</v>
+      </c>
+      <c r="C17">
+        <v>300.89346517511598</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B18" s="1">
+        <v>0.33</v>
+      </c>
+      <c r="C18">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B19" s="1">
+        <v>0.38</v>
+      </c>
+      <c r="C19">
+        <v>59.6875</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B20" s="1">
+        <v>0.44</v>
+      </c>
+      <c r="C20">
+        <v>24002.875</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B21" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C21">
+        <v>470191.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B22" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="C22">
+        <v>23936.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B23" s="1">
+        <v>0.42</v>
+      </c>
+      <c r="C23">
+        <v>4073.75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B25" s="1">
+        <v>0.43</v>
+      </c>
+      <c r="C25">
+        <v>1504.5625</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B26" s="1">
+        <v>0.31</v>
+      </c>
+      <c r="C26">
+        <v>541.125</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
+      </c>
+      <c r="B31" s="1">
+        <v>0.42</v>
+      </c>
+      <c r="C31">
+        <v>421920.52649117302</v>
       </c>
     </row>
   </sheetData>

--- a/Successful Solutions Sheet.xlsx
+++ b/Successful Solutions Sheet.xlsx
@@ -354,7 +354,7 @@
   <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -379,10 +379,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>0.51</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>1676</v>
+        <v>3280</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -390,10 +390,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>0.43</v>
+        <v>0.89</v>
       </c>
       <c r="C3">
-        <v>46.813089335986099</v>
+        <v>486.5</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -401,10 +401,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>0.36</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>69.0075189449459</v>
+        <v>708</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -412,10 +412,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>0.36</v>
+        <v>0.61</v>
       </c>
       <c r="C5">
-        <v>0.86372875703131502</v>
+        <v>1.4683388869532299</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -423,10 +423,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>0.41</v>
+        <v>0.48</v>
       </c>
       <c r="C6">
-        <v>1.1295305944237899</v>
+        <v>1.3177856934944301</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -549,10 +549,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="1">
-        <v>0.33</v>
+        <v>0.6</v>
       </c>
       <c r="C18">
-        <v>1071</v>
+        <v>1930.5</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -614,6 +614,12 @@
       <c r="A24">
         <v>23</v>
       </c>
+      <c r="B24" s="1">
+        <v>0.38</v>
+      </c>
+      <c r="C24">
+        <v>193504.25</v>
+      </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25">
@@ -641,20 +647,44 @@
       <c r="A27">
         <v>26</v>
       </c>
+      <c r="B27" s="1">
+        <v>0.34</v>
+      </c>
+      <c r="C27">
+        <v>41025.012117346902</v>
+      </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
+      <c r="B28" s="1">
+        <v>0.36</v>
+      </c>
+      <c r="C28">
+        <v>33.419816978845198</v>
+      </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
+      <c r="B29" s="1">
+        <v>0.34</v>
+      </c>
+      <c r="C29">
+        <v>77.993807321462</v>
+      </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
+      </c>
+      <c r="B30" s="1">
+        <v>0.37</v>
+      </c>
+      <c r="C30">
+        <v>9936378.7332859896</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
